--- a/Docs/ERRORS.xlsx
+++ b/Docs/ERRORS.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT H4000\H4000\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8D2D784F-3A31-4787-87DA-8E41BA481F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD19BA4-DEC9-4DC2-B35C-DD9C5612C977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DA" sheetId="2" r:id="rId1"/>
     <sheet name="AA" sheetId="4" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="254">
   <si>
     <t>AI0.HI</t>
   </si>
@@ -780,12 +781,18 @@
   </si>
   <si>
     <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>отключаю НС
+пропорциональные -&gt; 0
+камера сброс давления - через аварийный
+образец если без азота - сброс через пропорциональные</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -940,7 +947,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1129,6 +1136,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
@@ -1330,7 +1349,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1341,6 +1360,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1472,11 +1498,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:B63" totalsRowShown="0" tableBorderDxfId="2">
-  <autoFilter ref="A1:B63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица3" displayName="Таблица3" ref="A1:B63" totalsRowShown="0" tableBorderDxfId="2">
+  <autoFilter ref="A1:B63" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="TAG" dataDxfId="1"/>
-    <tableColumn id="2" name="DESCRIPTION" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TAG" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DESCRIPTION" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1778,17 +1804,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView topLeftCell="A43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="102.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96.140625" customWidth="1"/>
+    <col min="3" max="3" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1936,122 +1963,122 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="12" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="14" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="12" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="14" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="12" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="14" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="12" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="14" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="12" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="14" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="12" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="14" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="12" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="14" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="12" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2304,11 +2331,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2856,4 +2883,25 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842E98C1-CC6E-4C2C-AD14-242ABB101A26}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="96.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>